--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="177">
   <si>
     <t>Герой</t>
   </si>
@@ -547,6 +547,12 @@
   </si>
   <si>
     <t>Ромка46</t>
+  </si>
+  <si>
+    <t>Swekvinder</t>
+  </si>
+  <si>
+    <t>Иля</t>
   </si>
 </sst>
 </file>
@@ -1939,10 +1945,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2408,6 +2414,17 @@
         <v>173</v>
       </c>
     </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>5514479960</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C18" r:id="rId1"/>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="ПВП" sheetId="6" r:id="rId1"/>
@@ -924,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1947,7 +1947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ПВП" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="181">
   <si>
     <t>Герой</t>
   </si>
@@ -553,6 +553,18 @@
   </si>
   <si>
     <t>Иля</t>
+  </si>
+  <si>
+    <t>@AleksandrHD</t>
+  </si>
+  <si>
+    <t>Persival</t>
+  </si>
+  <si>
+    <t>Shama Dennista</t>
+  </si>
+  <si>
+    <t>Akonda</t>
   </si>
 </sst>
 </file>
@@ -924,7 +936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -1945,10 +1957,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2393,36 +2405,58 @@
       <c r="C43" s="7"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
+      <c r="A44" s="7">
         <v>5223450864</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
+      <c r="A45" s="7">
         <v>5038187292</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="7" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
+      <c r="A46" s="7">
         <v>5514479960</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="7" t="s">
         <v>175</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>641492546</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>5401725683</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="183">
   <si>
     <t>Герой</t>
   </si>
@@ -565,6 +565,12 @@
   </si>
   <si>
     <t>Akonda</t>
+  </si>
+  <si>
+    <t>klnahin</t>
+  </si>
+  <si>
+    <t>@jujevo</t>
   </si>
 </sst>
 </file>
@@ -601,7 +607,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -626,6 +632,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -640,19 +652,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1556,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:C38"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1735,7 +1748,7 @@
       <c r="B18" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
@@ -1744,7 +1757,7 @@
       <c r="B19" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1782,22 +1795,22 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>928038319</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>1115601052</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1846,7 +1859,7 @@
       <c r="B29" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1957,10 +1970,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1968,7 +1981,10 @@
     <col min="1" max="1" width="16.88671875" style="4" customWidth="1"/>
     <col min="2" max="2" width="35.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="37.109375" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="4"/>
+    <col min="4" max="5" width="8.88671875" style="4"/>
+    <col min="6" max="6" width="13.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -2138,7 +2154,7 @@
       <c r="B18" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2273,7 +2289,7 @@
       <c r="B31" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2288,7 +2304,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>1490089183</v>
       </c>
@@ -2299,7 +2315,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>582672576</v>
       </c>
@@ -2309,8 +2325,14 @@
       <c r="C34" s="4" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F34" s="9">
+        <v>1729215365</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>1312419369</v>
       </c>
@@ -2321,7 +2343,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>430855982</v>
       </c>
@@ -2332,7 +2354,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>1939200735</v>
       </c>
@@ -2343,119 +2365,122 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
-        <v>1729215365</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>753157359</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
         <v>5091662666</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
         <v>545591189</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
         <v>5192931084</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
         <v>2142917401</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
         <v>1992462499</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C43" s="7"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
         <v>5223450864</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
         <v>5038187292</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
         <v>5514479960</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
         <v>641492546</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
         <v>5401725683</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>179</v>
       </c>
     </row>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="ПВП" sheetId="6" r:id="rId1"/>
-    <sheet name="БГ" sheetId="3" r:id="rId2"/>
-    <sheet name="Спецназ" sheetId="4" r:id="rId3"/>
-    <sheet name="Пользователи" sheetId="5" r:id="rId4"/>
+    <sheet name="Пользователи" sheetId="5" r:id="rId1"/>
+    <sheet name="Спецназ" sheetId="4" r:id="rId2"/>
+    <sheet name="БГ" sheetId="3" r:id="rId3"/>
+    <sheet name="ПВП" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="185">
   <si>
     <t>Герой</t>
   </si>
@@ -571,6 +571,12 @@
   </si>
   <si>
     <t>@jujevo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @eto911cyka</t>
+  </si>
+  <si>
+    <t>kingu1n</t>
   </si>
 </sst>
 </file>
@@ -947,6 +953,1151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:B49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="37.109375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="4"/>
+    <col min="6" max="6" width="13.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>454589284</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>1328571684</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>1616544477</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>1080440135</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>782384728</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>577870981</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>637983352</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>1307118225</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>1379911210</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>1953995275</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>1350540867</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>986441044</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>994081475</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>311477229</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>1865402446</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>986441044</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>839130130</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>5011407979</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>986775623</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>973350655</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>1860951834</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>553447783</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>847078296</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>928038319</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>1115601052</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>1413195500</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>1330289590</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>747028059</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>1235313368</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>851327325</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>1010821803</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>1490089183</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>582672576</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F34" s="9">
+        <v>1729215365</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>1312419369</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>430855982</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>1939200735</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>753157359</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>5091662666</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>545591189</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>5192931084</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>2142917401</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>1992462499</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>5223450864</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>5038187292</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>5514479960</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>641492546</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>5401725683</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>662913548</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C18" r:id="rId1"/>
+    <hyperlink ref="C31" r:id="rId2"/>
+    <hyperlink ref="C39" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.5546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>454589284</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>1328571684</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>1616544477</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>1080440135</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>782384728</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>577870981</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>637983352</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>1307118225</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>1379911210</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>1953995275</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>1350540867</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>986441044</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>994081475</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>311477229</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>1865402446</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>986441044</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>5011407979</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>839130130</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>847078296</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>553447783</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>973350655</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>928038319</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>1115601052</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>986775623</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>1413195500</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>1330289590</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>1235313368</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>851327325</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>1010821803</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>1860951834</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>1490089183</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>582672576</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>1312419369</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>430855982</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>1939200735</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>2142917401</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>1992462499</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C19" r:id="rId1"/>
+    <hyperlink ref="C29" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="49.77734375" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" customWidth="1"/>
+    <col min="5" max="5" width="31.44140625" customWidth="1"/>
+    <col min="6" max="6" width="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -1359,1138 +2510,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
-    <col min="3" max="3" width="49.77734375" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" customWidth="1"/>
-    <col min="5" max="5" width="31.44140625" customWidth="1"/>
-    <col min="6" max="6" width="46" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.5546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>454589284</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>1328571684</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>1616544477</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>1080440135</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>782384728</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>577870981</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>637983352</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>1307118225</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>1379911210</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>1953995275</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>1350540867</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>986441044</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>994081475</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>311477229</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>1865402446</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>986441044</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>5011407979</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>839130130</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>847078296</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>553447783</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>973350655</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>928038319</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>1115601052</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>986775623</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>1413195500</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>1330289590</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>1235313368</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>851327325</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
-        <v>1010821803</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <v>1860951834</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
-        <v>1490089183</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <v>582672576</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
-        <v>1312419369</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <v>430855982</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
-        <v>1939200735</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
-        <v>2142917401</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
-        <v>1992462499</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1"/>
-    <hyperlink ref="C29" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:C38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="37.109375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="4"/>
-    <col min="6" max="6" width="13.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>454589284</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>1328571684</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>1616544477</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>1080440135</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>782384728</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>577870981</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>637983352</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>1307118225</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>1379911210</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>1953995275</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>1350540867</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>986441044</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>994081475</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>311477229</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>1865402446</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>986441044</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>839130130</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>5011407979</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>986775623</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>973350655</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>1860951834</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>553447783</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>847078296</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>928038319</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>1115601052</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>1413195500</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>1330289590</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>747028059</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
-        <v>1235313368</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <v>851327325</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
-        <v>1010821803</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <v>1490089183</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
-        <v>582672576</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F34" s="9">
-        <v>1729215365</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <v>1312419369</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
-        <v>430855982</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
-        <v>1939200735</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
-        <v>753157359</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
-        <v>5091662666</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
-        <v>545591189</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
-        <v>5192931084</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
-        <v>2142917401</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
-        <v>1992462499</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
-        <v>5223450864</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
-        <v>5038187292</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="6">
-        <v>5514479960</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
-        <v>641492546</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
-        <v>5401725683</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C18" r:id="rId1"/>
-    <hyperlink ref="C31" r:id="rId2"/>
-    <hyperlink ref="C39" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-</worksheet>
 </file>
--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="188">
   <si>
     <t>Герой</t>
   </si>
@@ -577,6 +577,15 @@
   </si>
   <si>
     <t>kingu1n</t>
+  </si>
+  <si>
+    <t>Derronitt</t>
+  </si>
+  <si>
+    <t>Elektronik31</t>
+  </si>
+  <si>
+    <t>@Stanislav3111</t>
   </si>
 </sst>
 </file>
@@ -953,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:B49"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1478,6 +1487,25 @@
         <v>183</v>
       </c>
     </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>528690396</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>1771046884</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C18" r:id="rId1"/>
@@ -1491,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1881,6 +1909,17 @@
       </c>
       <c r="B38" s="4" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>545591189</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Пользователи" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="188">
   <si>
     <t>Герой</t>
   </si>
@@ -964,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1519,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:C39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1920,6 +1920,17 @@
       </c>
       <c r="C39" s="6" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>641492546</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Пользователи" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="213">
   <si>
     <t>Герой</t>
   </si>
@@ -162,18 +162,12 @@
     <t>Оккультист</t>
   </si>
   <si>
-    <t>Священный суд/Хранитель леса</t>
-  </si>
-  <si>
     <t>Колосс</t>
   </si>
   <si>
     <t>Щит порядка</t>
   </si>
   <si>
-    <t>Призрачная хватка/Священный суд</t>
-  </si>
-  <si>
     <t>Секач</t>
   </si>
   <si>
@@ -586,6 +580,87 @@
   </si>
   <si>
     <t>@Stanislav3111</t>
+  </si>
+  <si>
+    <t>FuwAPa</t>
+  </si>
+  <si>
+    <t>@FuwaKA</t>
+  </si>
+  <si>
+    <t>ronin</t>
+  </si>
+  <si>
+    <t>Ронин</t>
+  </si>
+  <si>
+    <t>Ожог</t>
+  </si>
+  <si>
+    <t>Сказочный круг</t>
+  </si>
+  <si>
+    <t>Взрывной щит/Печать бездны</t>
+  </si>
+  <si>
+    <t>Уклон(Dodge)</t>
+  </si>
+  <si>
+    <t>Священный суд/Спектр/Печать бездны</t>
+  </si>
+  <si>
+    <t>Печать бездны/Священный суд</t>
+  </si>
+  <si>
+    <t>Священный суд/Хранитель леса/Печать бездны</t>
+  </si>
+  <si>
+    <t>Призрачная хватка/Священный суд/Печать бездны</t>
+  </si>
+  <si>
+    <t>Выживание/Оживление</t>
+  </si>
+  <si>
+    <t>zmeya</t>
+  </si>
+  <si>
+    <t>Пернатый Змей</t>
+  </si>
+  <si>
+    <t>baron</t>
+  </si>
+  <si>
+    <t>Темный Барон</t>
+  </si>
+  <si>
+    <t>povelitel</t>
+  </si>
+  <si>
+    <t>Повелитель огня</t>
+  </si>
+  <si>
+    <t>Железная воля</t>
+  </si>
+  <si>
+    <t>Древнее знание</t>
+  </si>
+  <si>
+    <t>Печать бездны</t>
+  </si>
+  <si>
+    <t>Печать безды</t>
+  </si>
+  <si>
+    <t>ПВО/Печать бездны</t>
+  </si>
+  <si>
+    <t>fox</t>
+  </si>
+  <si>
+    <t>Полярный Лис</t>
+  </si>
+  <si>
+    <t>Комета</t>
   </si>
 </sst>
 </file>
@@ -962,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:C47"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -981,13 +1056,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -995,7 +1070,7 @@
         <v>454589284</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1003,7 +1078,7 @@
         <v>1328571684</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1011,10 +1086,10 @@
         <v>1616544477</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1022,7 +1097,7 @@
         <v>1080440135</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1030,10 +1105,10 @@
         <v>782384728</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1041,10 +1116,10 @@
         <v>577870981</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1052,10 +1127,10 @@
         <v>637983352</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1063,7 +1138,7 @@
         <v>1307118225</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1071,7 +1146,7 @@
         <v>1379911210</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1079,10 +1154,10 @@
         <v>1953995275</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1090,7 +1165,7 @@
         <v>1350540867</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1098,7 +1173,7 @@
         <v>986441044</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1106,10 +1181,10 @@
         <v>994081475</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1117,10 +1192,10 @@
         <v>311477229</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1128,7 +1203,7 @@
         <v>1865402446</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1136,7 +1211,7 @@
         <v>986441044</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1144,10 +1219,10 @@
         <v>839130130</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1155,7 +1230,7 @@
         <v>5011407979</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1163,10 +1238,10 @@
         <v>986775623</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1174,10 +1249,10 @@
         <v>973350655</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1185,10 +1260,10 @@
         <v>1860951834</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1196,10 +1271,10 @@
         <v>553447783</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1207,10 +1282,10 @@
         <v>847078296</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1218,7 +1293,7 @@
         <v>928038319</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C25" s="3"/>
     </row>
@@ -1227,10 +1302,10 @@
         <v>1115601052</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1238,10 +1313,10 @@
         <v>1413195500</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1249,7 +1324,7 @@
         <v>1330289590</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1257,10 +1332,10 @@
         <v>747028059</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1268,10 +1343,10 @@
         <v>1235313368</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1279,10 +1354,10 @@
         <v>851327325</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1290,190 +1365,184 @@
         <v>1010821803</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>1490089183</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>582672576</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F34" s="9">
-        <v>1729215365</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>1312419369</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>430855982</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>1939200735</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>753157359</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>5091662666</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>545591189</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>5192931084</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>2142917401</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>1992462499</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>5223450864</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>5038187292</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>5514479960</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>641492546</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>5401725683</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1481,10 +1550,10 @@
         <v>662913548</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1492,7 +1561,7 @@
         <v>528690396</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1500,10 +1569,29 @@
         <v>1771046884</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>1928430586</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="9">
+        <v>1729215365</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1519,10 +1607,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1535,13 +1623,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1549,7 +1637,7 @@
         <v>454589284</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1557,7 +1645,7 @@
         <v>1328571684</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1565,10 +1653,10 @@
         <v>1616544477</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1576,7 +1664,7 @@
         <v>1080440135</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1584,10 +1672,10 @@
         <v>782384728</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1595,10 +1683,10 @@
         <v>577870981</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1606,10 +1694,10 @@
         <v>637983352</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1617,7 +1705,7 @@
         <v>1307118225</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1625,7 +1713,7 @@
         <v>1379911210</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1633,10 +1721,10 @@
         <v>1953995275</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1644,7 +1732,7 @@
         <v>1350540867</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1652,7 +1740,7 @@
         <v>986441044</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1660,10 +1748,10 @@
         <v>994081475</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1671,10 +1759,10 @@
         <v>311477229</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1682,7 +1770,7 @@
         <v>1865402446</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1690,7 +1778,7 @@
         <v>986441044</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1698,7 +1786,7 @@
         <v>5011407979</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C18" s="5"/>
     </row>
@@ -1707,10 +1795,10 @@
         <v>839130130</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1718,10 +1806,10 @@
         <v>847078296</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1729,10 +1817,10 @@
         <v>553447783</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1740,10 +1828,10 @@
         <v>973350655</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1751,7 +1839,7 @@
         <v>928038319</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C23" s="8"/>
     </row>
@@ -1760,10 +1848,10 @@
         <v>1115601052</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1771,10 +1859,10 @@
         <v>986775623</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1782,10 +1870,10 @@
         <v>1413195500</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1793,7 +1881,7 @@
         <v>1330289590</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1801,7 +1889,7 @@
         <v>1235313368</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1809,10 +1897,10 @@
         <v>851327325</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1820,10 +1908,10 @@
         <v>1010821803</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1831,10 +1919,10 @@
         <v>1860951834</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1842,10 +1930,10 @@
         <v>1490089183</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1853,10 +1941,10 @@
         <v>582672576</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1864,10 +1952,10 @@
         <v>1312419369</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1875,10 +1963,10 @@
         <v>430855982</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1886,10 +1974,10 @@
         <v>1939200735</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1897,10 +1985,10 @@
         <v>2142917401</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1908,7 +1996,7 @@
         <v>1992462499</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1916,10 +2004,10 @@
         <v>545591189</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1927,10 +2015,21 @@
         <v>641492546</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>1928430586</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1962,7 +2061,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1982,10 +2081,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -1997,15 +2096,15 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -2017,12 +2116,12 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>27</v>
@@ -2042,70 +2141,70 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
@@ -2117,18 +2216,18 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
@@ -2137,7 +2236,7 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2148,10 +2247,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2161,13 +2260,13 @@
     <col min="3" max="3" width="25.33203125" customWidth="1"/>
     <col min="4" max="4" width="45.88671875" customWidth="1"/>
     <col min="5" max="5" width="71.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
     <col min="7" max="7" width="44.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2190,7 +2289,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -2208,18 +2307,18 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -2231,18 +2330,18 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -2254,12 +2353,12 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -2271,18 +2370,18 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>194</v>
       </c>
       <c r="G5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -2291,21 +2390,21 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>194</v>
       </c>
       <c r="G6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -2320,15 +2419,15 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>195</v>
       </c>
       <c r="G7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -2346,12 +2445,12 @@
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
@@ -2369,12 +2468,12 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -2389,15 +2488,15 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>194</v>
       </c>
       <c r="G10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
@@ -2415,12 +2514,12 @@
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -2435,15 +2534,15 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>194</v>
       </c>
       <c r="G12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
@@ -2458,18 +2557,18 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="G13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -2478,18 +2577,18 @@
         <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>197</v>
       </c>
       <c r="G14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -2507,12 +2606,12 @@
         <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
@@ -2530,12 +2629,12 @@
         <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -2553,7 +2652,122 @@
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>130</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" t="s">
+        <v>191</v>
+      </c>
+      <c r="F18" t="s">
+        <v>192</v>
+      </c>
+      <c r="G18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>206</v>
+      </c>
+      <c r="F19" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>206</v>
+      </c>
+      <c r="F21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" t="s">
+        <v>212</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Пользователи" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="214">
   <si>
     <t>Герой</t>
   </si>
@@ -438,9 +438,6 @@
     <t>@Balancedgate</t>
   </si>
   <si>
-    <t>StRaino4ek</t>
-  </si>
-  <si>
     <t>dinamo</t>
   </si>
   <si>
@@ -546,9 +543,6 @@
     <t>Swekvinder</t>
   </si>
   <si>
-    <t>Иля</t>
-  </si>
-  <si>
     <t>@AleksandrHD</t>
   </si>
   <si>
@@ -661,6 +655,15 @@
   </si>
   <si>
     <t>Комета</t>
+  </si>
+  <si>
+    <t>Baka</t>
+  </si>
+  <si>
+    <t>@Isayagain</t>
+  </si>
+  <si>
+    <t>Shenwick</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
@@ -1335,7 +1338,7 @@
         <v>103</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1346,7 +1349,7 @@
         <v>111</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1368,7 +1371,7 @@
         <v>112</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1390,7 +1393,7 @@
         <v>119</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1401,7 +1404,7 @@
         <v>116</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1431,10 +1434,10 @@
         <v>753157359</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1483,19 +1486,21 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
-        <v>1992462499</v>
+        <v>5223450864</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C43" s="6"/>
+        <v>168</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
-        <v>5223450864</v>
+        <v>5038187292</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>170</v>
@@ -1503,29 +1508,29 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
-        <v>5038187292</v>
+        <v>5514479960</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>172</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
-        <v>5514479960</v>
+        <v>641492546</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
-        <v>641492546</v>
+        <v>5401725683</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>176</v>
@@ -1536,37 +1541,37 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
-        <v>5401725683</v>
+        <v>662913548</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
-        <v>662913548</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C49" s="6" t="s">
+      <c r="A49" s="4">
+        <v>528690396</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>528690396</v>
+        <v>1771046884</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>1771046884</v>
+        <v>1928430586</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>184</v>
@@ -1576,22 +1581,22 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
-        <v>1928430586</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>187</v>
+      <c r="A52" s="9">
+        <v>1729215365</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="9">
-        <v>1729215365</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>99</v>
+      <c r="A53" s="4">
+        <v>1854781723</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +1615,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:C41"/>
+      <selection activeCell="A38" sqref="A38:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1911,7 +1916,7 @@
         <v>112</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1955,7 +1960,7 @@
         <v>116</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1991,14 +1996,6 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
-        <v>1992462499</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>545591189</v>
@@ -2015,10 +2012,10 @@
         <v>641492546</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -2026,10 +2023,10 @@
         <v>1928430586</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2061,7 +2058,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2081,7 +2078,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>48</v>
@@ -2101,7 +2098,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>49</v>
@@ -2121,7 +2118,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>27</v>
@@ -2141,7 +2138,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>50</v>
@@ -2161,7 +2158,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>51</v>
@@ -2181,7 +2178,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -2201,7 +2198,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -2221,7 +2218,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>54</v>
@@ -2249,7 +2246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -2266,7 +2263,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2289,7 +2286,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -2312,7 +2309,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -2335,7 +2332,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -2358,7 +2355,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -2373,7 +2370,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G5" t="s">
         <v>127</v>
@@ -2381,7 +2378,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -2396,7 +2393,7 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G6" t="s">
         <v>128</v>
@@ -2404,7 +2401,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -2419,7 +2416,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G7" t="s">
         <v>129</v>
@@ -2427,7 +2424,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -2450,7 +2447,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
@@ -2473,7 +2470,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -2488,7 +2485,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G10" t="s">
         <v>128</v>
@@ -2496,7 +2493,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
@@ -2519,7 +2516,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -2534,7 +2531,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G12" t="s">
         <v>129</v>
@@ -2542,7 +2539,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
@@ -2557,7 +2554,7 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G13" t="s">
         <v>129</v>
@@ -2565,7 +2562,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
@@ -2580,7 +2577,7 @@
         <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G14" t="s">
         <v>129</v>
@@ -2588,7 +2585,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -2611,7 +2608,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
@@ -2634,7 +2631,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -2657,33 +2654,33 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" t="s">
         <v>188</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18" t="s">
         <v>189</v>
       </c>
-      <c r="C18" t="s">
+      <c r="F18" t="s">
         <v>190</v>
       </c>
-      <c r="D18" t="s">
-        <v>198</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>191</v>
-      </c>
-      <c r="F18" t="s">
-        <v>192</v>
-      </c>
-      <c r="G18" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -2692,10 +2689,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G19" t="s">
         <v>126</v>
@@ -2703,13 +2700,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D20" t="s">
         <v>36</v>
@@ -2718,7 +2715,7 @@
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G20" t="s">
         <v>129</v>
@@ -2726,10 +2723,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
@@ -2738,10 +2735,10 @@
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G21" t="s">
         <v>129</v>
@@ -2749,13 +2746,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C22" t="s">
         <v>210</v>
-      </c>
-      <c r="B22" t="s">
-        <v>211</v>
-      </c>
-      <c r="C22" t="s">
-        <v>212</v>
       </c>
       <c r="D22" t="s">
         <v>36</v>
@@ -2764,7 +2761,7 @@
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G22" t="s">
         <v>126</v>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="216">
   <si>
     <t>Герой</t>
   </si>
@@ -664,6 +664,12 @@
   </si>
   <si>
     <t>Shenwick</t>
+  </si>
+  <si>
+    <t>❤️dimasick❤️</t>
+  </si>
+  <si>
+    <t>@blackpriss</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1046,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C54" sqref="C54"/>
@@ -1597,6 +1603,17 @@
       </c>
       <c r="C53" s="4" t="s">
         <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>688361555</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="218">
   <si>
     <t>Герой</t>
   </si>
@@ -670,6 +670,12 @@
   </si>
   <si>
     <t>@blackpriss</t>
+  </si>
+  <si>
+    <t>HeuZo</t>
+  </si>
+  <si>
+    <t>@HeuZo</t>
   </si>
 </sst>
 </file>
@@ -1046,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1614,6 +1620,17 @@
       </c>
       <c r="C54" s="4" t="s">
         <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>1041446651</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="221">
   <si>
     <t>Герой</t>
   </si>
@@ -676,6 +676,15 @@
   </si>
   <si>
     <t>@HeuZo</t>
+  </si>
+  <si>
+    <t>Lasto4ko</t>
+  </si>
+  <si>
+    <t>@Abcyeban</t>
+  </si>
+  <si>
+    <t>NewEra</t>
   </si>
 </sst>
 </file>
@@ -1052,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1562,7 +1571,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>528690396</v>
       </c>
@@ -1570,7 +1579,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>1771046884</v>
       </c>
@@ -1581,7 +1590,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>1928430586</v>
       </c>
@@ -1592,7 +1601,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>1729215365</v>
       </c>
@@ -1600,7 +1609,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>1854781723</v>
       </c>
@@ -1611,7 +1620,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>688361555</v>
       </c>
@@ -1622,7 +1631,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>1041446651</v>
       </c>
@@ -1631,6 +1640,20 @@
       </c>
       <c r="C55" s="4" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>961127866</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Пользователи" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="222">
   <si>
     <t>Герой</t>
   </si>
@@ -552,9 +552,6 @@
     <t>Shama Dennista</t>
   </si>
   <si>
-    <t>Akonda</t>
-  </si>
-  <si>
     <t>klnahin</t>
   </si>
   <si>
@@ -685,6 +682,12 @@
   </si>
   <si>
     <t>NewEra</t>
+  </si>
+  <si>
+    <t>Emarosa</t>
+  </si>
+  <si>
+    <t>Данил Соловьев</t>
   </si>
 </sst>
 </file>
@@ -1063,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1455,10 +1458,10 @@
         <v>753157359</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1535,7 +1538,7 @@
         <v>172</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1554,7 +1557,7 @@
         <v>5401725683</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>175</v>
@@ -1565,10 +1568,10 @@
         <v>662913548</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1576,7 +1579,10 @@
         <v>528690396</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1584,10 +1590,10 @@
         <v>1771046884</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1595,10 +1601,10 @@
         <v>1928430586</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1614,10 +1620,10 @@
         <v>1854781723</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1625,10 +1631,10 @@
         <v>688361555</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1636,10 +1642,10 @@
         <v>1041446651</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1647,13 +1653,13 @@
         <v>961127866</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="D56" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -1669,10 +1675,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:B38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2053,6 +2059,17 @@
         <v>137</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>662913548</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>545591189</v>
@@ -2080,10 +2097,65 @@
         <v>1928430586</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>185</v>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>5038187292</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>5401725683</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>753157359</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>5192931084</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>528690396</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2427,7 +2499,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G5" t="s">
         <v>127</v>
@@ -2450,7 +2522,7 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G6" t="s">
         <v>128</v>
@@ -2473,7 +2545,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G7" t="s">
         <v>129</v>
@@ -2542,7 +2614,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G10" t="s">
         <v>128</v>
@@ -2588,7 +2660,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G12" t="s">
         <v>129</v>
@@ -2611,7 +2683,7 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G13" t="s">
         <v>129</v>
@@ -2634,7 +2706,7 @@
         <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G14" t="s">
         <v>129</v>
@@ -2711,33 +2783,33 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" t="s">
         <v>186</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>187</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" t="s">
         <v>188</v>
       </c>
-      <c r="D18" t="s">
-        <v>196</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>189</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>190</v>
-      </c>
-      <c r="G18" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" t="s">
         <v>197</v>
-      </c>
-      <c r="B19" t="s">
-        <v>198</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -2746,10 +2818,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="s">
+        <v>203</v>
+      </c>
+      <c r="F19" t="s">
         <v>204</v>
-      </c>
-      <c r="F19" t="s">
-        <v>205</v>
       </c>
       <c r="G19" t="s">
         <v>126</v>
@@ -2757,13 +2829,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" t="s">
         <v>199</v>
       </c>
-      <c r="B20" t="s">
-        <v>200</v>
-      </c>
       <c r="C20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D20" t="s">
         <v>36</v>
@@ -2772,7 +2844,7 @@
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G20" t="s">
         <v>129</v>
@@ -2780,10 +2852,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" t="s">
         <v>201</v>
-      </c>
-      <c r="B21" t="s">
-        <v>202</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
@@ -2792,10 +2864,10 @@
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G21" t="s">
         <v>129</v>
@@ -2803,13 +2875,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" t="s">
         <v>208</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>209</v>
-      </c>
-      <c r="C22" t="s">
-        <v>210</v>
       </c>
       <c r="D22" t="s">
         <v>36</v>
@@ -2818,7 +2890,7 @@
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G22" t="s">
         <v>126</v>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Пользователи" sheetId="5" r:id="rId1"/>
@@ -1066,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1075,7 +1075,8 @@
     <col min="1" max="1" width="16.88671875" style="4" customWidth="1"/>
     <col min="2" max="2" width="35.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="37.109375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="4"/>
+    <col min="4" max="4" width="12" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="4"/>
     <col min="6" max="6" width="13.6640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="11.44140625" style="4" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="4"/>
@@ -1677,7 +1678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="224">
   <si>
     <t>Герой</t>
   </si>
@@ -688,6 +688,12 @@
   </si>
   <si>
     <t>Данил Соловьев</t>
+  </si>
+  <si>
+    <t>Pa3bouHuk</t>
+  </si>
+  <si>
+    <t>@Globlali</t>
   </si>
 </sst>
 </file>
@@ -1064,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:B52"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1661,6 +1667,17 @@
       </c>
       <c r="D56" s="4" t="s">
         <v>219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>357619727</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="226">
   <si>
     <t>Герой</t>
   </si>
@@ -693,7 +693,13 @@
     <t>Pa3bouHuk</t>
   </si>
   <si>
-    <t>@Globlali</t>
+    <t xml:space="preserve"> @Globlali</t>
+  </si>
+  <si>
+    <t>hobo💥Z00M🀄️</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @YuriiPisak</t>
   </si>
 </sst>
 </file>
@@ -1070,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1678,6 +1684,17 @@
       </c>
       <c r="C57" s="4" t="s">
         <v>223</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>1410876670</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="227">
   <si>
     <t>Герой</t>
   </si>
@@ -700,6 +700,9 @@
   </si>
   <si>
     <t xml:space="preserve"> @YuriiPisak</t>
+  </si>
+  <si>
+    <t>Крокодил_аэ</t>
   </si>
 </sst>
 </file>
@@ -1076,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1695,6 +1698,14 @@
       </c>
       <c r="C58" s="4" t="s">
         <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>5478310294</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="229">
   <si>
     <t>Герой</t>
   </si>
@@ -703,6 +703,12 @@
   </si>
   <si>
     <t>Крокодил_аэ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @mixako99</t>
+  </si>
+  <si>
+    <t>Mixako99</t>
   </si>
 </sst>
 </file>
@@ -1079,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1706,6 +1712,17 @@
       </c>
       <c r="B59" s="4" t="s">
         <v>226</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>348704960</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="233">
   <si>
     <t>Герой</t>
   </si>
@@ -709,6 +709,18 @@
   </si>
   <si>
     <t>Mixako99</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AnotherDay</t>
+  </si>
+  <si>
+    <t>Alexandr</t>
+  </si>
+  <si>
+    <t>ɣᙡ℮∂ωӥй</t>
+  </si>
+  <si>
+    <t>Ленивец</t>
   </si>
 </sst>
 </file>
@@ -1085,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:XFD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1725,6 +1737,28 @@
         <v>227</v>
       </c>
     </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>739911830</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>1947777929</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C18" r:id="rId1"/>
@@ -1738,10 +1772,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD46"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2219,6 +2253,28 @@
       </c>
       <c r="C46" s="6" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>688361555</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>1947777929</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="237">
   <si>
     <t>Герой</t>
   </si>
@@ -399,9 +399,6 @@
     <t xml:space="preserve">https://t.me/Lomali2198 </t>
   </si>
   <si>
-    <t>🗡Realist🛡</t>
-  </si>
-  <si>
     <t>Точность(ACC)/Атака(Attack)</t>
   </si>
   <si>
@@ -721,6 +718,21 @@
   </si>
   <si>
     <t>Ленивец</t>
+  </si>
+  <si>
+    <t>Fatality</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @BrutGs</t>
+  </si>
+  <si>
+    <t>Myho-Mor</t>
+  </si>
+  <si>
+    <t>Petrovich</t>
+  </si>
+  <si>
+    <t>rrrratik</t>
   </si>
 </sst>
 </file>
@@ -1097,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:XFD62"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1396,7 +1408,7 @@
         <v>103</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1407,7 +1419,7 @@
         <v>111</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1429,7 +1441,7 @@
         <v>112</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1451,7 +1463,7 @@
         <v>119</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1462,7 +1474,7 @@
         <v>116</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1492,10 +1504,10 @@
         <v>753157359</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1503,7 +1515,7 @@
         <v>5091662666</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>125</v>
+        <v>232</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>124</v>
@@ -1514,10 +1526,10 @@
         <v>545591189</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1525,10 +1537,10 @@
         <v>5192931084</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1536,10 +1548,10 @@
         <v>2142917401</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1547,10 +1559,10 @@
         <v>5223450864</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1558,10 +1570,10 @@
         <v>5038187292</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1569,10 +1581,10 @@
         <v>5514479960</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1580,10 +1592,10 @@
         <v>641492546</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1591,10 +1603,10 @@
         <v>5401725683</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1602,10 +1614,10 @@
         <v>662913548</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1613,10 +1625,10 @@
         <v>528690396</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1624,10 +1636,10 @@
         <v>1771046884</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1635,10 +1647,10 @@
         <v>1928430586</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1654,10 +1666,10 @@
         <v>1854781723</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1665,10 +1677,10 @@
         <v>688361555</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1676,10 +1688,10 @@
         <v>1041446651</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1687,13 +1699,13 @@
         <v>961127866</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="D56" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1701,10 +1713,10 @@
         <v>357619727</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1712,10 +1724,10 @@
         <v>1410876670</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1723,7 +1735,7 @@
         <v>5478310294</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1731,10 +1743,10 @@
         <v>348704960</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1742,10 +1754,10 @@
         <v>739911830</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1753,10 +1765,32 @@
         <v>1947777929</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>232</v>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>958498572</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>1356651816</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -1772,10 +1806,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2076,7 +2110,7 @@
         <v>112</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -2120,7 +2154,7 @@
         <v>116</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -2150,10 +2184,10 @@
         <v>2142917401</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -2161,10 +2195,10 @@
         <v>662913548</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -2172,10 +2206,10 @@
         <v>545591189</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -2183,10 +2217,10 @@
         <v>641492546</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -2194,10 +2228,10 @@
         <v>1928430586</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -2205,10 +2239,10 @@
         <v>5038187292</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -2216,10 +2250,10 @@
         <v>5401725683</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -2227,10 +2261,10 @@
         <v>753157359</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -2238,10 +2272,10 @@
         <v>5192931084</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -2249,10 +2283,10 @@
         <v>528690396</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -2260,10 +2294,10 @@
         <v>688361555</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -2271,16 +2305,28 @@
         <v>1947777929</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C48" s="4" t="s">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>5091662666</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>232</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C19" r:id="rId1"/>
     <hyperlink ref="C29" r:id="rId2"/>
+    <hyperlink ref="C49" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2306,7 +2352,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2326,7 +2372,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>48</v>
@@ -2346,7 +2392,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>49</v>
@@ -2366,7 +2412,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>27</v>
@@ -2386,7 +2432,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>50</v>
@@ -2406,7 +2452,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>51</v>
@@ -2426,7 +2472,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -2446,7 +2492,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -2466,7 +2512,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>54</v>
@@ -2511,7 +2557,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2534,7 +2580,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -2552,12 +2598,12 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -2575,12 +2621,12 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -2598,12 +2644,12 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -2618,15 +2664,15 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -2641,15 +2687,15 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -2664,15 +2710,15 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -2690,12 +2736,12 @@
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
@@ -2713,12 +2759,12 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -2733,15 +2779,15 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
@@ -2759,12 +2805,12 @@
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -2779,15 +2825,15 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
@@ -2802,15 +2848,15 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
@@ -2825,15 +2871,15 @@
         <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -2851,12 +2897,12 @@
         <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
@@ -2874,12 +2920,12 @@
         <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -2897,38 +2943,38 @@
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" t="s">
         <v>185</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>186</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" t="s">
         <v>187</v>
       </c>
-      <c r="D18" t="s">
-        <v>195</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>188</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>189</v>
-      </c>
-      <c r="G18" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" t="s">
         <v>196</v>
-      </c>
-      <c r="B19" t="s">
-        <v>197</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -2937,24 +2983,24 @@
         <v>16</v>
       </c>
       <c r="E19" t="s">
+        <v>202</v>
+      </c>
+      <c r="F19" t="s">
         <v>203</v>
       </c>
-      <c r="F19" t="s">
-        <v>204</v>
-      </c>
       <c r="G19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" t="s">
         <v>198</v>
       </c>
-      <c r="B20" t="s">
-        <v>199</v>
-      </c>
       <c r="C20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D20" t="s">
         <v>36</v>
@@ -2963,18 +3009,18 @@
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>199</v>
+      </c>
+      <c r="B21" t="s">
         <v>200</v>
-      </c>
-      <c r="B21" t="s">
-        <v>201</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
@@ -2983,24 +3029,24 @@
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22" t="s">
         <v>207</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>208</v>
-      </c>
-      <c r="C22" t="s">
-        <v>209</v>
       </c>
       <c r="D22" t="s">
         <v>36</v>
@@ -3009,10 +3055,10 @@
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Пользователи" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="215">
   <si>
     <t>Герой</t>
   </si>
@@ -306,9 +306,6 @@
     <t>@Pavel_9_3</t>
   </si>
   <si>
-    <t>ЗлойАлекс</t>
-  </si>
-  <si>
     <t>ZаVас</t>
   </si>
   <si>
@@ -333,9 +330,6 @@
     <t>https://t.me/Diki5555</t>
   </si>
   <si>
-    <t>APGYMEHT</t>
-  </si>
-  <si>
     <t>мандаринка</t>
   </si>
   <si>
@@ -357,9 +351,6 @@
     <t>@d9l_DANILb_SKiJI</t>
   </si>
   <si>
-    <t>🗡MoogyWQ🛡</t>
-  </si>
-  <si>
     <t>пвнн</t>
   </si>
   <si>
@@ -372,21 +363,9 @@
     <t>@Valery_Official37</t>
   </si>
   <si>
-    <t>UNaruto08</t>
-  </si>
-  <si>
-    <t>de_Rubampre</t>
-  </si>
-  <si>
-    <t>@sxndytas</t>
-  </si>
-  <si>
     <t>Lyublyu_popy_Devushek</t>
   </si>
   <si>
-    <t>deRubampre</t>
-  </si>
-  <si>
     <t>Монгол</t>
   </si>
   <si>
@@ -423,12 +402,6 @@
     <t>@karinagrozina</t>
   </si>
   <si>
-    <t>Сергей Балакин</t>
-  </si>
-  <si>
-    <t>52rus🇷🇺</t>
-  </si>
-  <si>
     <t>Balancedgate</t>
   </si>
   <si>
@@ -510,21 +483,12 @@
     <t>fen</t>
   </si>
   <si>
-    <t xml:space="preserve"> @APGYMEHT</t>
-  </si>
-  <si>
-    <t>Станислав Дербенов</t>
-  </si>
-  <si>
     <t xml:space="preserve"> @PepelKC</t>
   </si>
   <si>
     <t xml:space="preserve"> @ValeryOfficial37</t>
   </si>
   <si>
-    <t>e'l'e'g'a'n't</t>
-  </si>
-  <si>
     <t>🗡️Ĥâŵķ🛡️</t>
   </si>
   <si>
@@ -537,18 +501,12 @@
     <t>Ромка46</t>
   </si>
   <si>
-    <t>Swekvinder</t>
-  </si>
-  <si>
     <t>@AleksandrHD</t>
   </si>
   <si>
     <t>Persival</t>
   </si>
   <si>
-    <t>Shama Dennista</t>
-  </si>
-  <si>
     <t>klnahin</t>
   </si>
   <si>
@@ -651,27 +609,12 @@
     <t>Комета</t>
   </si>
   <si>
-    <t>Baka</t>
-  </si>
-  <si>
-    <t>@Isayagain</t>
-  </si>
-  <si>
-    <t>Shenwick</t>
-  </si>
-  <si>
     <t>❤️dimasick❤️</t>
   </si>
   <si>
     <t>@blackpriss</t>
   </si>
   <si>
-    <t>HeuZo</t>
-  </si>
-  <si>
-    <t>@HeuZo</t>
-  </si>
-  <si>
     <t>Lasto4ko</t>
   </si>
   <si>
@@ -681,16 +624,7 @@
     <t>NewEra</t>
   </si>
   <si>
-    <t>Emarosa</t>
-  </si>
-  <si>
     <t>Данил Соловьев</t>
-  </si>
-  <si>
-    <t>Pa3bouHuk</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> @Globlali</t>
   </si>
   <si>
     <t>hobo💥Z00M🀄️</t>
@@ -814,7 +748,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -828,6 +762,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1111,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1303,7 +1238,7 @@
         <v>5011407979</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1311,10 +1246,10 @@
         <v>986775623</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1322,10 +1257,10 @@
         <v>973350655</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1333,10 +1268,10 @@
         <v>1860951834</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1361,24 +1296,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>928038319</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="3"/>
-    </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>1115601052</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1386,10 +1312,10 @@
         <v>1413195500</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1397,29 +1323,7 @@
         <v>1330289590</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>747028059</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
-        <v>1235313368</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1427,10 +1331,10 @@
         <v>851327325</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1438,10 +1342,10 @@
         <v>1010821803</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1449,10 +1353,10 @@
         <v>1490089183</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1460,32 +1364,10 @@
         <v>582672576</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <v>1312419369</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
-        <v>430855982</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1493,10 +1375,10 @@
         <v>1939200735</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1504,10 +1386,10 @@
         <v>753157359</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1515,10 +1397,10 @@
         <v>5091662666</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1526,21 +1408,10 @@
         <v>545591189</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
-        <v>5192931084</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1548,10 +1419,10 @@
         <v>2142917401</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1559,10 +1430,10 @@
         <v>5223450864</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1570,21 +1441,10 @@
         <v>5038187292</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
-        <v>5514479960</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1592,21 +1452,10 @@
         <v>641492546</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
-        <v>5401725683</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1614,10 +1463,10 @@
         <v>662913548</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1625,10 +1474,10 @@
         <v>528690396</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1636,10 +1485,10 @@
         <v>1771046884</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1647,10 +1496,10 @@
         <v>1928430586</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1658,18 +1507,7 @@
         <v>1729215365</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
-        <v>1854781723</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>210</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1677,21 +1515,10 @@
         <v>688361555</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
-        <v>1041446651</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1699,24 +1526,13 @@
         <v>961127866</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
-        <v>357619727</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1724,10 +1540,10 @@
         <v>1410876670</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1735,7 +1551,7 @@
         <v>5478310294</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1743,10 +1559,10 @@
         <v>348704960</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1754,10 +1570,10 @@
         <v>739911830</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1765,10 +1581,10 @@
         <v>1947777929</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1776,10 +1592,10 @@
         <v>958498572</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1787,10 +1603,10 @@
         <v>1356651816</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -1808,8 +1624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD49"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1985,7 +1801,7 @@
         <v>5011407979</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C18" s="5"/>
     </row>
@@ -2027,30 +1843,26 @@
         <v>973350655</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>928038319</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="8"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>1115601052</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -2058,10 +1870,10 @@
         <v>986775623</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -2069,10 +1881,10 @@
         <v>1413195500</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -2080,15 +1892,7 @@
         <v>1330289590</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>1235313368</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -2096,10 +1900,10 @@
         <v>851327325</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -2107,10 +1911,10 @@
         <v>1010821803</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -2118,10 +1922,10 @@
         <v>1860951834</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -2129,10 +1933,10 @@
         <v>1490089183</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -2140,32 +1944,10 @@
         <v>582672576</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
-        <v>1312419369</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <v>430855982</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -2173,10 +1955,10 @@
         <v>1939200735</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -2184,10 +1966,10 @@
         <v>2142917401</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -2195,10 +1977,10 @@
         <v>662913548</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -2206,10 +1988,10 @@
         <v>545591189</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -2217,10 +1999,10 @@
         <v>641492546</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -2228,10 +2010,10 @@
         <v>1928430586</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -2239,21 +2021,10 @@
         <v>5038187292</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
-        <v>5401725683</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -2261,21 +2032,10 @@
         <v>753157359</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
-        <v>5192931084</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -2283,10 +2043,10 @@
         <v>528690396</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -2294,10 +2054,10 @@
         <v>688361555</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -2305,10 +2065,10 @@
         <v>1947777929</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -2316,10 +2076,10 @@
         <v>5091662666</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2352,7 +2112,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2372,7 +2132,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>48</v>
@@ -2392,7 +2152,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>49</v>
@@ -2412,7 +2172,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>27</v>
@@ -2432,7 +2192,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>50</v>
@@ -2452,7 +2212,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>51</v>
@@ -2472,7 +2232,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -2492,7 +2252,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -2512,7 +2272,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>54</v>
@@ -2557,7 +2317,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2580,7 +2340,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -2598,18 +2358,18 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -2621,18 +2381,18 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -2644,12 +2404,12 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -2664,15 +2424,15 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="G5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -2681,21 +2441,21 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="G6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -2710,15 +2470,15 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -2736,12 +2496,12 @@
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
@@ -2759,12 +2519,12 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -2779,15 +2539,15 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="G10" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
@@ -2805,12 +2565,12 @@
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -2825,15 +2585,15 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="G12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
@@ -2848,15 +2608,15 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G13" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
@@ -2871,15 +2631,15 @@
         <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="G14" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -2897,12 +2657,12 @@
         <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
@@ -2920,12 +2680,12 @@
         <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -2943,38 +2703,38 @@
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C18" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="D18" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E18" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F18" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="G18" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -2983,24 +2743,24 @@
         <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="F19" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G19" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C20" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="D20" t="s">
         <v>36</v>
@@ -3009,18 +2769,18 @@
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="G20" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
@@ -3029,24 +2789,24 @@
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="F21" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="G21" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C22" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D22" t="s">
         <v>36</v>
@@ -3055,10 +2815,10 @@
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G22" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="219">
   <si>
     <t>Герой</t>
   </si>
@@ -667,6 +667,18 @@
   </si>
   <si>
     <t>rrrratik</t>
+  </si>
+  <si>
+    <t>2picc</t>
+  </si>
+  <si>
+    <t>@Galda_ya</t>
+  </si>
+  <si>
+    <t>NAMINÁL</t>
+  </si>
+  <si>
+    <t>@ymer_okk</t>
   </si>
 </sst>
 </file>
@@ -1046,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1296,6 +1308,17 @@
         <v>91</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>858259966</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>1115601052</v>
@@ -1324,6 +1347,17 @@
       </c>
       <c r="B28" s="4" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>1110710590</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1625,7 +1659,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2036,6 +2070,17 @@
       </c>
       <c r="C44" s="6" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>348704960</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="221">
   <si>
     <t>Герой</t>
   </si>
@@ -679,6 +679,12 @@
   </si>
   <si>
     <t>@ymer_okk</t>
+  </si>
+  <si>
+    <t>@Old_maks_1</t>
+  </si>
+  <si>
+    <t>максруся</t>
   </si>
 </sst>
 </file>
@@ -1058,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:XFD60"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1360,6 +1366,17 @@
         <v>218</v>
       </c>
     </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>1722772124</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>851327325</v>
@@ -1658,8 +1675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1982,6 +1999,28 @@
       </c>
       <c r="C33" s="4" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>1771046884</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>1722772124</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="204">
   <si>
     <t>Герой</t>
   </si>
@@ -360,12 +360,6 @@
     <t>@mutiev17</t>
   </si>
   <si>
-    <t>@Valery_Official37</t>
-  </si>
-  <si>
-    <t>Lyublyu_popy_Devushek</t>
-  </si>
-  <si>
     <t>Монгол</t>
   </si>
   <si>
@@ -396,12 +390,6 @@
     <t>Точность(ACC)/Уклон(Dodge)</t>
   </si>
   <si>
-    <t>Аурина</t>
-  </si>
-  <si>
-    <t>@karinagrozina</t>
-  </si>
-  <si>
     <t>Balancedgate</t>
   </si>
   <si>
@@ -486,15 +474,6 @@
     <t xml:space="preserve"> @PepelKC</t>
   </si>
   <si>
-    <t xml:space="preserve"> @ValeryOfficial37</t>
-  </si>
-  <si>
-    <t>🗡️Ĥâŵķ🛡️</t>
-  </si>
-  <si>
-    <t>@HawkBGR</t>
-  </si>
-  <si>
     <t>Romka 23677</t>
   </si>
   <si>
@@ -519,9 +498,6 @@
     <t>kingu1n</t>
   </si>
   <si>
-    <t>Derronitt</t>
-  </si>
-  <si>
     <t>Elektronik31</t>
   </si>
   <si>
@@ -609,12 +585,6 @@
     <t>Комета</t>
   </si>
   <si>
-    <t>❤️dimasick❤️</t>
-  </si>
-  <si>
-    <t>@blackpriss</t>
-  </si>
-  <si>
     <t>Lasto4ko</t>
   </si>
   <si>
@@ -624,15 +594,6 @@
     <t>NewEra</t>
   </si>
   <si>
-    <t>Данил Соловьев</t>
-  </si>
-  <si>
-    <t>hobo💥Z00M🀄️</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> @YuriiPisak</t>
-  </si>
-  <si>
     <t>Крокодил_аэ</t>
   </si>
   <si>
@@ -642,12 +603,6 @@
     <t>Mixako99</t>
   </si>
   <si>
-    <t xml:space="preserve"> AnotherDay</t>
-  </si>
-  <si>
-    <t>Alexandr</t>
-  </si>
-  <si>
     <t>ɣᙡ℮∂ωӥй</t>
   </si>
   <si>
@@ -658,12 +613,6 @@
   </si>
   <si>
     <t xml:space="preserve"> @BrutGs</t>
-  </si>
-  <si>
-    <t>Myho-Mor</t>
-  </si>
-  <si>
-    <t>Petrovich</t>
   </si>
   <si>
     <t>rrrratik</t>
@@ -766,7 +715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -780,7 +729,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1062,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1256,7 +1204,7 @@
         <v>5011407979</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1319,10 +1267,10 @@
         <v>858259966</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1360,10 +1308,10 @@
         <v>1110710590</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1371,10 +1319,10 @@
         <v>1722772124</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1396,10 +1344,10 @@
         <v>109</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>1490089183</v>
       </c>
@@ -1410,261 +1358,173 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>582672576</v>
+        <v>1939200735</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="4" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>753157359</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
-        <v>1939200735</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="C35" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>5091662666</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>2142917401</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
-        <v>753157359</v>
+        <v>5038187292</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>641492546</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>662913548</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>1771046884</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>1928430586</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
-        <v>5091662666</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
-        <v>545591189</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
-        <v>2142917401</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
-        <v>5223450864</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
-        <v>5038187292</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="6">
-        <v>641492546</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
-        <v>662913548</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
-        <v>528690396</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
-        <v>1771046884</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
-        <v>1928430586</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="9">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
         <v>1729215365</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B43" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
-        <v>688361555</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C54" s="4" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>961127866</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>5478310294</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>348704960</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>1947777929</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>958498572</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
-        <v>961127866</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
-        <v>1410876670</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
-        <v>5478310294</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
-        <v>348704960</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
-        <v>739911830</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="4">
-        <v>1947777929</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
-        <v>958498572</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="4">
-        <v>1356651816</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>213</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C18" r:id="rId1"/>
     <hyperlink ref="C31" r:id="rId2"/>
-    <hyperlink ref="C39" r:id="rId3"/>
+    <hyperlink ref="C36" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -1673,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1852,7 +1712,7 @@
         <v>5011407979</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C18" s="5"/>
     </row>
@@ -1901,276 +1761,235 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="A23" s="8">
+        <v>1115601052</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>1115601052</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>97</v>
+      <c r="A24" s="4">
+        <v>986775623</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>986775623</v>
+        <v>1413195500</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>1413195500</v>
+        <v>1330289590</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>1330289590</v>
+        <v>851327325</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>1010821803</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>851327325</v>
+        <v>1860951834</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>1010821803</v>
+        <v>1490089183</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>1860951834</v>
+        <v>1771046884</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>1490089183</v>
+        <v>1722772124</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>582672576</v>
+        <v>1939200735</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>1771046884</v>
+        <v>2142917401</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <v>1722772124</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>219</v>
+      <c r="A35" s="6">
+        <v>662913548</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
-        <v>1939200735</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>115</v>
+      <c r="A36" s="6">
+        <v>641492546</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>2142917401</v>
+        <v>1928430586</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
-        <v>662913548</v>
+        <v>5038187292</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
-        <v>545591189</v>
+        <v>753157359</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
-        <v>641492546</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>159</v>
+      <c r="A40" s="4">
+        <v>348704960</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>1928430586</v>
+        <v>5478310294</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
-        <v>5038187292</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
-        <v>753157359</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <v>348704960</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <v>528690396</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
-        <v>688361555</v>
-      </c>
-      <c r="B47" s="4" t="s">
+      <c r="A42" s="4">
+        <v>1947777929</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>5091662666</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
-        <v>1947777929</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
-        <v>5091662666</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>117</v>
+      <c r="C43" s="7" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C19" r:id="rId1"/>
-    <hyperlink ref="C29" r:id="rId2"/>
-    <hyperlink ref="C49" r:id="rId3"/>
+    <hyperlink ref="C27" r:id="rId2"/>
+    <hyperlink ref="C43" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2196,7 +2015,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2216,7 +2035,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>48</v>
@@ -2236,7 +2055,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>49</v>
@@ -2256,7 +2075,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>27</v>
@@ -2276,7 +2095,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>50</v>
@@ -2296,7 +2115,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>51</v>
@@ -2316,7 +2135,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -2336,7 +2155,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -2356,7 +2175,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>54</v>
@@ -2401,7 +2220,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2424,7 +2243,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -2442,12 +2261,12 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -2465,12 +2284,12 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -2488,12 +2307,12 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -2508,15 +2327,15 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -2531,15 +2350,15 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -2554,15 +2373,15 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -2580,12 +2399,12 @@
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
@@ -2603,12 +2422,12 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -2623,15 +2442,15 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
@@ -2649,12 +2468,12 @@
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -2669,15 +2488,15 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
@@ -2692,15 +2511,15 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
@@ -2715,15 +2534,15 @@
         <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -2741,12 +2560,12 @@
         <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
@@ -2764,12 +2583,12 @@
         <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -2787,38 +2606,38 @@
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" t="s">
         <v>172</v>
       </c>
-      <c r="D18" t="s">
-        <v>180</v>
-      </c>
       <c r="E18" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F18" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G18" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -2827,24 +2646,24 @@
         <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C20" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D20" t="s">
         <v>36</v>
@@ -2853,18 +2672,18 @@
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
@@ -2873,24 +2692,24 @@
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F21" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B22" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C22" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D22" t="s">
         <v>36</v>
@@ -2899,10 +2718,10 @@
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Пользователи" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="208">
   <si>
     <t>Герой</t>
   </si>
@@ -634,6 +634,18 @@
   </si>
   <si>
     <t>максруся</t>
+  </si>
+  <si>
+    <t>VAL3R0N</t>
+  </si>
+  <si>
+    <t>@NN_Vsevolod_Vlasov</t>
+  </si>
+  <si>
+    <t>Yujio</t>
+  </si>
+  <si>
+    <t>@neakylov</t>
   </si>
 </sst>
 </file>
@@ -1010,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:C48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1520,6 +1532,28 @@
         <v>196</v>
       </c>
     </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>499142502</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>743793318</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C18" r:id="rId1"/>
@@ -1535,7 +1569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>499142502</v>
+        <v>499172502</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>204</v>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Пользователи" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="210">
   <si>
     <t>Герой</t>
   </si>
@@ -646,6 +646,12 @@
   </si>
   <si>
     <t>@neakylov</t>
+  </si>
+  <si>
+    <t>Штурм</t>
+  </si>
+  <si>
+    <t>Спец</t>
   </si>
 </sst>
 </file>
@@ -1022,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1554,6 +1560,22 @@
         <v>207</v>
       </c>
     </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>-1001100054328</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>-1001100054328</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C18" r:id="rId1"/>
@@ -1567,10 +1589,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2017,6 +2039,22 @@
       </c>
       <c r="C43" s="7" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>-1001100054328</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>-1001100054328</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Пользователи" sheetId="5" r:id="rId1"/>
@@ -1030,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:B52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>-1001100054328</v>
+        <v>-1001410785964</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>208</v>
@@ -1591,13 +1591,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:B45"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="33.77734375" style="4" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="29.44140625" style="4" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="4"/>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>-1001100054328</v>
+        <v>-1001410785964</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>208</v>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="212">
   <si>
     <t>Герой</t>
   </si>
@@ -652,6 +652,12 @@
   </si>
   <si>
     <t>Спец</t>
+  </si>
+  <si>
+    <t>Vanecka</t>
+  </si>
+  <si>
+    <t>Общалка</t>
   </si>
 </sst>
 </file>
@@ -1028,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1576,6 +1582,22 @@
         <v>208</v>
       </c>
     </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>505601224</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>-1001467336173</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C18" r:id="rId1"/>
@@ -1589,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2055,6 +2077,14 @@
       </c>
       <c r="B45" s="4" t="s">
         <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>505601224</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="203">
   <si>
     <t>Герой</t>
   </si>
@@ -585,15 +585,6 @@
     <t>Комета</t>
   </si>
   <si>
-    <t>Lasto4ko</t>
-  </si>
-  <si>
-    <t>@Abcyeban</t>
-  </si>
-  <si>
-    <t>NewEra</t>
-  </si>
-  <si>
     <t>Крокодил_аэ</t>
   </si>
   <si>
@@ -618,12 +609,6 @@
     <t>rrrratik</t>
   </si>
   <si>
-    <t>2picc</t>
-  </si>
-  <si>
-    <t>@Galda_ya</t>
-  </si>
-  <si>
     <t>NAMINÁL</t>
   </si>
   <si>
@@ -634,18 +619,6 @@
   </si>
   <si>
     <t>максруся</t>
-  </si>
-  <si>
-    <t>VAL3R0N</t>
-  </si>
-  <si>
-    <t>@NN_Vsevolod_Vlasov</t>
-  </si>
-  <si>
-    <t>Yujio</t>
-  </si>
-  <si>
-    <t>@neakylov</t>
   </si>
   <si>
     <t>Штурм</t>
@@ -1034,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1286,17 +1259,6 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>858259966</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>1115601052</v>
@@ -1332,10 +1294,10 @@
         <v>1110710590</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1343,10 +1305,10 @@
         <v>1722772124</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1371,7 +1333,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>1490089183</v>
       </c>
@@ -1382,7 +1344,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>1939200735</v>
       </c>
@@ -1393,7 +1355,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>753157359</v>
       </c>
@@ -1404,18 +1366,18 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>5091662666</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>2142917401</v>
       </c>
@@ -1426,7 +1388,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>5038187292</v>
       </c>
@@ -1437,7 +1399,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>641492546</v>
       </c>
@@ -1448,7 +1410,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>662913548</v>
       </c>
@@ -1459,7 +1421,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>1771046884</v>
       </c>
@@ -1470,7 +1432,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>1928430586</v>
       </c>
@@ -1481,7 +1443,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>1729215365</v>
       </c>
@@ -1489,113 +1451,77 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <v>961127866</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>5478310294</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>348704960</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>1947777929</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>958498572</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
-        <v>499172502</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
-        <v>743793318</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>-1001100054328</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>-1001410785964</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>505601224</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>-1001467336173</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1939,10 +1865,10 @@
         <v>1722772124</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -2027,10 +1953,10 @@
         <v>348704960</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -2038,7 +1964,7 @@
         <v>5478310294</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -2046,10 +1972,10 @@
         <v>1947777929</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -2057,7 +1983,7 @@
         <v>5091662666</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>115</v>
@@ -2068,7 +1994,7 @@
         <v>-1001100054328</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -2076,7 +2002,7 @@
         <v>-1001410785964</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -2084,7 +2010,7 @@
         <v>505601224</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="204">
   <si>
     <t>Герой</t>
   </si>
@@ -631,6 +631,9 @@
   </si>
   <si>
     <t>Общалка</t>
+  </si>
+  <si>
+    <t>Vadya42ru</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1013,7 @@
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1449,6 +1452,14 @@
       </c>
       <c r="B43" s="10" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>1028764843</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -1012,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="203">
   <si>
     <t>Герой</t>
   </si>
@@ -628,9 +628,6 @@
   </si>
   <si>
     <t>Vanecka</t>
-  </si>
-  <si>
-    <t>Общалка</t>
   </si>
   <si>
     <t>Vadya42ru</t>
@@ -1010,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1459,7 +1456,7 @@
         <v>1028764843</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1503,36 +1500,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
-        <v>-1001100054328</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
-        <v>-1001410785964</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
         <v>505601224</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
-        <v>-1001467336173</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Пользователи" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="206">
   <si>
     <t>Герой</t>
   </si>
@@ -631,6 +631,15 @@
   </si>
   <si>
     <t>Vadya42ru</t>
+  </si>
+  <si>
+    <t>Яна_Солях</t>
+  </si>
+  <si>
+    <t>@Komplivit2008</t>
+  </si>
+  <si>
+    <t>RYDIPOP</t>
   </si>
 </sst>
 </file>
@@ -1007,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD54"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1500,12 +1509,31 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>505601224</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>1304532854</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>1690903811</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1521,10 +1549,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1995,6 +2023,14 @@
       </c>
       <c r="B46" s="4" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>1690903811</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Пользователи" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="210">
   <si>
     <t>Герой</t>
   </si>
@@ -640,6 +640,18 @@
   </si>
   <si>
     <t>RYDIPOP</t>
+  </si>
+  <si>
+    <t>@zuh666</t>
+  </si>
+  <si>
+    <t>👾4eReP👾</t>
+  </si>
+  <si>
+    <t>@DungeonMaster36</t>
+  </si>
+  <si>
+    <t>Gromoboy</t>
   </si>
 </sst>
 </file>
@@ -1016,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1536,6 +1548,28 @@
         <v>205</v>
       </c>
     </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>1389671061</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>1808533908</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C18" r:id="rId1"/>
@@ -1551,7 +1585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="208">
   <si>
     <t>Герой</t>
   </si>
@@ -640,12 +640,6 @@
   </si>
   <si>
     <t>RYDIPOP</t>
-  </si>
-  <si>
-    <t>@zuh666</t>
-  </si>
-  <si>
-    <t>👾4eReP👾</t>
   </si>
   <si>
     <t>@DungeonMaster36</t>
@@ -1031,7 +1025,7 @@
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1548,26 +1542,15 @@
         <v>205</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
-        <v>1389671061</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>1808533908</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Пользователи" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="214">
   <si>
     <t>Герой</t>
   </si>
@@ -646,6 +646,24 @@
   </si>
   <si>
     <t>Gromoboy</t>
+  </si>
+  <si>
+    <t>Deffest_8</t>
+  </si>
+  <si>
+    <t>@IvanS0k0l0v</t>
+  </si>
+  <si>
+    <t>Дурной глаз</t>
+  </si>
+  <si>
+    <t>Второе дыхание</t>
+  </si>
+  <si>
+    <t>Древнее знание/Кошмар/Шипастый щит</t>
+  </si>
+  <si>
+    <t>glaz</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
@@ -1542,6 +1560,17 @@
         <v>205</v>
       </c>
     </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>2068329433</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>1808533908</v>
@@ -1566,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD47"/>
+      <selection activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2048,6 +2077,17 @@
       </c>
       <c r="B47" s="4" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>2068329433</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2266,10 +2306,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2789,6 +2829,29 @@
         <v>116</v>
       </c>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>213</v>
+      </c>
+      <c r="B23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" t="s">
+        <v>211</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>212</v>
+      </c>
+      <c r="F23" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Пользователи" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="194">
   <si>
     <t>Герой</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Созвездия</t>
   </si>
   <si>
-    <t>Чешуекрыл</t>
-  </si>
-  <si>
     <t>Выживание</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>Священный суд/Спектр</t>
   </si>
   <si>
-    <t>Демон-охотник</t>
-  </si>
-  <si>
     <t>Броня хаоса/Крылатое возрождение</t>
   </si>
   <si>
@@ -93,18 +87,6 @@
     <t>Художница</t>
   </si>
   <si>
-    <t>Королева Мумия</t>
-  </si>
-  <si>
-    <t>Стойкость/Священный огонь</t>
-  </si>
-  <si>
-    <t>Кошмар/Броня Хаоса</t>
-  </si>
-  <si>
-    <t>Спектр</t>
-  </si>
-  <si>
     <t>Бард</t>
   </si>
   <si>
@@ -126,30 +108,9 @@
     <t>Кислота/Призрачная Хватка</t>
   </si>
   <si>
-    <t>Князь Тыква</t>
-  </si>
-  <si>
-    <t>Скорость</t>
-  </si>
-  <si>
     <t>Реанимация</t>
   </si>
   <si>
-    <t>Маэстро</t>
-  </si>
-  <si>
-    <t>Кошмар/Щит порядка/Сказочный круг</t>
-  </si>
-  <si>
-    <t>Кристелла</t>
-  </si>
-  <si>
-    <t>Священный огонь/Щит дракона</t>
-  </si>
-  <si>
-    <t>Горн победы/Крылатое возрождение</t>
-  </si>
-  <si>
     <t>Цветочная Фейри</t>
   </si>
   <si>
@@ -162,12 +123,6 @@
     <t>Оккультист</t>
   </si>
   <si>
-    <t>Колосс</t>
-  </si>
-  <si>
-    <t>Щит порядка</t>
-  </si>
-  <si>
     <t>Секач</t>
   </si>
   <si>
@@ -387,9 +342,6 @@
     <t>Точность(ACC)/Жизнь(HP)</t>
   </si>
   <si>
-    <t>Точность(ACC)/Уклон(Dodge)</t>
-  </si>
-  <si>
     <t>Balancedgate</t>
   </si>
   <si>
@@ -408,45 +360,27 @@
     <t>mechnic</t>
   </si>
   <si>
-    <t>demon</t>
-  </si>
-  <si>
     <t>bard</t>
   </si>
   <si>
     <t>hudozhka</t>
   </si>
   <si>
-    <t>mumiya</t>
-  </si>
-  <si>
     <t>mari</t>
   </si>
   <si>
-    <t>tycva</t>
-  </si>
-  <si>
     <t>chezh_poryadok</t>
   </si>
   <si>
     <t>frostee</t>
   </si>
   <si>
-    <t>maestro</t>
-  </si>
-  <si>
-    <t>krist</t>
-  </si>
-  <si>
     <t>fairy</t>
   </si>
   <si>
     <t>okkult</t>
   </si>
   <si>
-    <t>koloss</t>
-  </si>
-  <si>
     <t>sekach</t>
   </si>
   <si>
@@ -664,6 +598,12 @@
   </si>
   <si>
     <t>glaz</t>
+  </si>
+  <si>
+    <t>Чех (Порядок)</t>
+  </si>
+  <si>
+    <t>Чех (Хаос)</t>
   </si>
 </sst>
 </file>
@@ -1060,13 +1000,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1074,7 +1014,7 @@
         <v>454589284</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1082,7 +1022,7 @@
         <v>1328571684</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1090,10 +1030,10 @@
         <v>1616544477</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1101,7 +1041,7 @@
         <v>1080440135</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1109,10 +1049,10 @@
         <v>782384728</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1120,10 +1060,10 @@
         <v>577870981</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1131,10 +1071,10 @@
         <v>637983352</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1142,7 +1082,7 @@
         <v>1307118225</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1150,7 +1090,7 @@
         <v>1379911210</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1158,10 +1098,10 @@
         <v>1953995275</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1169,7 +1109,7 @@
         <v>1350540867</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1177,7 +1117,7 @@
         <v>986441044</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1185,10 +1125,10 @@
         <v>994081475</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1196,10 +1136,10 @@
         <v>311477229</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1207,7 +1147,7 @@
         <v>1865402446</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1215,7 +1155,7 @@
         <v>986441044</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1223,10 +1163,10 @@
         <v>839130130</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1234,7 +1174,7 @@
         <v>5011407979</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1242,10 +1182,10 @@
         <v>986775623</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1253,10 +1193,10 @@
         <v>973350655</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1264,10 +1204,10 @@
         <v>1860951834</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1275,10 +1215,10 @@
         <v>553447783</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1286,10 +1226,10 @@
         <v>847078296</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1297,10 +1237,10 @@
         <v>1115601052</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1308,10 +1248,10 @@
         <v>1413195500</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1319,7 +1259,7 @@
         <v>1330289590</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1327,10 +1267,10 @@
         <v>1110710590</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1338,10 +1278,10 @@
         <v>1722772124</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1349,10 +1289,10 @@
         <v>851327325</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1360,10 +1300,10 @@
         <v>1010821803</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1371,10 +1311,10 @@
         <v>1490089183</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1382,10 +1322,10 @@
         <v>1939200735</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1393,10 +1333,10 @@
         <v>753157359</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1404,10 +1344,10 @@
         <v>5091662666</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1415,10 +1355,10 @@
         <v>2142917401</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1426,10 +1366,10 @@
         <v>5038187292</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1437,10 +1377,10 @@
         <v>641492546</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1448,10 +1388,10 @@
         <v>662913548</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1459,10 +1399,10 @@
         <v>1771046884</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1470,10 +1410,10 @@
         <v>1928430586</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1481,7 +1421,7 @@
         <v>1729215365</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1489,7 +1429,7 @@
         <v>1028764843</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1497,7 +1437,7 @@
         <v>5478310294</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1505,10 +1445,10 @@
         <v>348704960</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1516,10 +1456,10 @@
         <v>1947777929</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1527,10 +1467,10 @@
         <v>958498572</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1538,7 +1478,7 @@
         <v>505601224</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1546,10 +1486,10 @@
         <v>1304532854</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1557,7 +1497,7 @@
         <v>1690903811</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1565,10 +1505,10 @@
         <v>2068329433</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1576,10 +1516,10 @@
         <v>1808533908</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1611,13 +1551,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1625,7 +1565,7 @@
         <v>454589284</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1633,7 +1573,7 @@
         <v>1328571684</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1641,10 +1581,10 @@
         <v>1616544477</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1652,7 +1592,7 @@
         <v>1080440135</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1660,10 +1600,10 @@
         <v>782384728</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1671,10 +1611,10 @@
         <v>577870981</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1682,10 +1622,10 @@
         <v>637983352</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1693,7 +1633,7 @@
         <v>1307118225</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1701,7 +1641,7 @@
         <v>1379911210</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1709,10 +1649,10 @@
         <v>1953995275</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1720,7 +1660,7 @@
         <v>1350540867</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1728,7 +1668,7 @@
         <v>986441044</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1736,10 +1676,10 @@
         <v>994081475</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1747,10 +1687,10 @@
         <v>311477229</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1758,7 +1698,7 @@
         <v>1865402446</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1766,7 +1706,7 @@
         <v>986441044</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1774,7 +1714,7 @@
         <v>5011407979</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C18" s="5"/>
     </row>
@@ -1783,10 +1723,10 @@
         <v>839130130</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1794,10 +1734,10 @@
         <v>847078296</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1805,10 +1745,10 @@
         <v>553447783</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1816,10 +1756,10 @@
         <v>973350655</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1827,10 +1767,10 @@
         <v>1115601052</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1838,10 +1778,10 @@
         <v>986775623</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1849,10 +1789,10 @@
         <v>1413195500</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1860,7 +1800,7 @@
         <v>1330289590</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1868,10 +1808,10 @@
         <v>851327325</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1879,10 +1819,10 @@
         <v>1010821803</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1890,10 +1830,10 @@
         <v>1860951834</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1901,10 +1841,10 @@
         <v>1490089183</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1912,10 +1852,10 @@
         <v>1771046884</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1923,10 +1863,10 @@
         <v>1722772124</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1934,10 +1874,10 @@
         <v>1939200735</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1945,10 +1885,10 @@
         <v>2142917401</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1956,10 +1896,10 @@
         <v>662913548</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1967,10 +1907,10 @@
         <v>641492546</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1978,10 +1918,10 @@
         <v>1928430586</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1989,10 +1929,10 @@
         <v>5038187292</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -2000,10 +1940,10 @@
         <v>753157359</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -2011,10 +1951,10 @@
         <v>348704960</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -2022,7 +1962,7 @@
         <v>5478310294</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -2030,10 +1970,10 @@
         <v>1947777929</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -2041,10 +1981,10 @@
         <v>5091662666</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -2052,7 +1992,7 @@
         <v>-1001100054328</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -2060,7 +2000,7 @@
         <v>-1001410785964</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -2068,7 +2008,7 @@
         <v>505601224</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -2076,7 +2016,7 @@
         <v>1690903811</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -2084,10 +2024,10 @@
         <v>2068329433</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2104,8 +2044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2120,7 +2060,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2140,59 +2080,59 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -2200,102 +2140,102 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2306,10 +2246,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2325,7 +2265,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2348,7 +2288,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -2366,490 +2306,352 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
       <c r="G4" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="F5" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="G7" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="G8" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>160</v>
       </c>
       <c r="G9" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="G10" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="G11" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>189</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="F12" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="G12" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>170</v>
-      </c>
       <c r="G13" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>171</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
         <v>12</v>
       </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="G16" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
         <v>12</v>
       </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>159</v>
       </c>
       <c r="G17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" t="s">
-        <v>172</v>
-      </c>
-      <c r="E18" t="s">
-        <v>165</v>
-      </c>
-      <c r="F18" t="s">
-        <v>166</v>
-      </c>
-      <c r="G18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" t="s">
-        <v>174</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>180</v>
-      </c>
-      <c r="F19" t="s">
-        <v>181</v>
-      </c>
-      <c r="G19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>175</v>
-      </c>
-      <c r="B20" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" t="s">
-        <v>179</v>
-      </c>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" t="s">
-        <v>182</v>
-      </c>
-      <c r="G20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>177</v>
-      </c>
-      <c r="B21" t="s">
-        <v>178</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>180</v>
-      </c>
-      <c r="F21" t="s">
-        <v>183</v>
-      </c>
-      <c r="G21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>184</v>
-      </c>
-      <c r="B22" t="s">
-        <v>185</v>
-      </c>
-      <c r="C22" t="s">
-        <v>186</v>
-      </c>
-      <c r="D22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" t="s">
-        <v>181</v>
-      </c>
-      <c r="G22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>213</v>
-      </c>
-      <c r="B23" t="s">
-        <v>210</v>
-      </c>
-      <c r="C23" t="s">
-        <v>211</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s">
-        <v>212</v>
-      </c>
-      <c r="F23" t="s">
-        <v>171</v>
-      </c>
-      <c r="G23" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Database/database.xlsx
+++ b/Database/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Пользователи" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="219">
   <si>
     <t>Герой</t>
   </si>
@@ -604,6 +604,81 @@
   </si>
   <si>
     <t>Чех (Хаос)</t>
+  </si>
+  <si>
+    <t>Ссылка</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/WhmLk3_I0YAa_g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/RQ3tykAV8wFXDg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/DR_F0zCYXkPmzw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/uXsXDRlQAR2G5Q</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/8RXTTcC-n4QWuw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/ljsxa_McIljLnA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/ozixNO70I2VJhQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/drdJdpb6kZnKSg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/eW34tyc8R5fbhQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/OgqddVEuUf6dEw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/DRZzRNVCod_UxQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/c9wM1ucSJQRepA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/K9z0Z-bRiOntSQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/ITm33c4MzVtPOg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/2HtiWKGIUqAxbg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/KDYKQLY_nHahPw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/PEvY8jAnwH1Heg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/63qvpbRTHjnwrQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/JyskClfHkqE12A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/7aLgunsyXkwj1A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/fDgFTluZ9QHodg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/9itPN-MEmxcWaQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/QncBTZKvIbwGeA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/lEjaW-EKiOO1tQ</t>
   </si>
 </sst>
 </file>
@@ -685,7 +760,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -699,6 +774,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -2042,10 +2118,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2056,9 +2132,10 @@
     <col min="4" max="4" width="26.77734375" customWidth="1"/>
     <col min="5" max="5" width="31.44140625" customWidth="1"/>
     <col min="6" max="6" width="46" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
@@ -2077,8 +2154,11 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>119</v>
       </c>
@@ -2097,8 +2177,11 @@
       <c r="F2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -2117,8 +2200,11 @@
       <c r="F3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>121</v>
       </c>
@@ -2137,8 +2223,11 @@
       <c r="F4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>122</v>
       </c>
@@ -2157,8 +2246,11 @@
       <c r="F5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>123</v>
       </c>
@@ -2177,8 +2269,11 @@
       <c r="F6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -2197,8 +2292,11 @@
       <c r="F7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -2217,8 +2315,11 @@
       <c r="F8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>126</v>
       </c>
@@ -2237,19 +2338,25 @@
       <c r="F9" t="s">
         <v>47</v>
       </c>
+      <c r="G9" t="s">
+        <v>202</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2261,9 +2368,10 @@
     <col min="5" max="5" width="71.6640625" customWidth="1"/>
     <col min="6" max="6" width="46.44140625" customWidth="1"/>
     <col min="7" max="7" width="44.77734375" customWidth="1"/>
+    <col min="8" max="8" width="40.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
@@ -2285,8 +2393,11 @@
       <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -2308,8 +2419,11 @@
       <c r="G2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -2331,8 +2445,11 @@
       <c r="G3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -2354,8 +2471,11 @@
       <c r="G4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>151</v>
       </c>
@@ -2377,8 +2497,11 @@
       <c r="G5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -2400,8 +2523,11 @@
       <c r="G6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -2423,8 +2549,11 @@
       <c r="G7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>111</v>
       </c>
@@ -2446,8 +2575,11 @@
       <c r="G8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>153</v>
       </c>
@@ -2469,8 +2601,11 @@
       <c r="G9" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -2492,8 +2627,11 @@
       <c r="G10" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>155</v>
       </c>
@@ -2515,8 +2653,11 @@
       <c r="G11" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>191</v>
       </c>
@@ -2538,8 +2679,11 @@
       <c r="G12" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -2561,8 +2705,11 @@
       <c r="G13" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>114</v>
       </c>
@@ -2584,8 +2731,11 @@
       <c r="G14" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -2607,8 +2757,11 @@
       <c r="G15" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>140</v>
       </c>
@@ -2630,8 +2783,11 @@
       <c r="G16" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>162</v>
       </c>
@@ -2652,6 +2808,9 @@
       </c>
       <c r="G17" t="s">
         <v>101</v>
+      </c>
+      <c r="H17" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
